--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1080084.504224769</v>
+        <v>1076476.982545271</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32863755.74973756</v>
+        <v>32863755.74973757</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5658037.598036018</v>
+        <v>5658037.598036016</v>
       </c>
     </row>
     <row r="9">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>101.5001207892622</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.2521725514251</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>158.1540913337359</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>28.59304581190316</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>356.7642078759451</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>116.6395830120773</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>114.731215358945</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.6309722799639</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>369.3992114835609</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>122.2380722588546</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>74.42811009354853</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>135.3089822530171</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>156.8270139329974</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.5266111030784</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>74.42811009354853</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.09228531058712</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2323,19 +2323,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>257.611298993605</v>
       </c>
       <c r="H23" t="n">
-        <v>96.4730760934987</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>386.7926471780029</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -2608,22 +2608,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>88.19696737440557</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>384.4417048775216</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>133.0485544261987</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -3040,13 +3040,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>197.7574398706099</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>106.5196440534573</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>84.19102995066315</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.4070788904123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>57.09228531058624</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>214.8156362148745</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>139.5677570540066</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>187.591394823773</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>156.4417729482744</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>308.0647852801933</v>
+        <v>204.8426041147484</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>38.0806414738143</v>
       </c>
       <c r="G43" t="n">
-        <v>74.42811009354939</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>348.7229982277521</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>138.7679346478747</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>86.27432500780398</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1744.26120212753</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C11" t="n">
-        <v>1744.26120212753</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="D11" t="n">
         <v>1308.351417301975</v>
@@ -5038,16 +5038,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2148.556325916848</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2148.556325916848</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1744.26120212753</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X11" t="n">
-        <v>1744.26120212753</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.26120212753</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5117,19 +5117,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5138,7 +5138,7 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.5847871853875</v>
+        <v>858.3289888817344</v>
       </c>
       <c r="C13" t="n">
-        <v>743.0230756686125</v>
+        <v>685.7672773649593</v>
       </c>
       <c r="D13" t="n">
-        <v>577.1450828701352</v>
+        <v>685.7672773649593</v>
       </c>
       <c r="E13" t="n">
-        <v>407.3870791208724</v>
+        <v>516.0092736156967</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>339.3022195774529</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>284.6345691139103</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>408.5053707322083</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>992.686446150523</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954412</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X13" t="n">
-        <v>1107.403405904375</v>
+        <v>1277.567278286613</v>
       </c>
       <c r="Y13" t="n">
-        <v>1107.403405904375</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>916.8910812162151</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C14" t="n">
-        <v>916.8910812162151</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D14" t="n">
-        <v>480.9812963906596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
         <v>47.20655154895472</v>
@@ -5275,7 +5275,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
         <v>276.0532770435805</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.25688596925</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V14" t="n">
-        <v>1740.888999225871</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W14" t="n">
-        <v>1336.033544636904</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="X14" t="n">
-        <v>916.8910812162151</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y14" t="n">
-        <v>916.8910812162151</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="15">
@@ -5360,13 +5360,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.6726680376725</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C16" t="n">
-        <v>589.1109565208974</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="D16" t="n">
-        <v>589.1109565208974</v>
+        <v>497.5958522098859</v>
       </c>
       <c r="E16" t="n">
-        <v>419.3529527716346</v>
+        <v>327.8378484606232</v>
       </c>
       <c r="F16" t="n">
-        <v>242.6458987333908</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>488.1941452900665</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9641928553085</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.721907816843</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O16" t="n">
-        <v>2018.157038390386</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5469,19 +5469,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725808</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645512</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y16" t="n">
-        <v>953.4912867566595</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>750.7028478467491</v>
+        <v>1722.256755431941</v>
       </c>
       <c r="C17" t="n">
-        <v>750.7028478467491</v>
+        <v>1284.114282615364</v>
       </c>
       <c r="D17" t="n">
-        <v>750.7028478467491</v>
+        <v>848.2044977898086</v>
       </c>
       <c r="E17" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2196.388407401065</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U17" t="n">
-        <v>1937.317715922579</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V17" t="n">
-        <v>1574.700765856405</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W17" t="n">
-        <v>1169.845311267438</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X17" t="n">
-        <v>750.7028478467491</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="Y17" t="n">
-        <v>750.7028478467491</v>
+        <v>2148.556325916848</v>
       </c>
     </row>
     <row r="18">
@@ -5573,34 +5573,34 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>757.7926570868869</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>585.2309455701119</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D19" t="n">
-        <v>419.3529527716346</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E19" t="n">
-        <v>419.3529527716346</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>213.9315813162918</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L19" t="n">
-        <v>756.0122647025507</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M19" t="n">
-        <v>1340.193340120866</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1467.692251924755</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2223.651837798225</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>1981.404613701631</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1981.404613701631</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1694.449105572062</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1422.422701158353</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1177.030946491766</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>949.6112758058741</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1067.259851166298</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C20" t="n">
-        <v>1067.259851166298</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586987</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W20" t="n">
-        <v>1486.402314586987</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="X20" t="n">
-        <v>1067.259851166298</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="Y20" t="n">
-        <v>1067.259851166298</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.081764785142</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>616.081764785142</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D22" t="n">
-        <v>616.081764785142</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E22" t="n">
-        <v>446.3237610358793</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>269.6167069976354</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G22" t="n">
-        <v>104.8755266101539</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L22" t="n">
-        <v>744.992999204955</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1755.480362387978</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1040.831578335703</v>
+        <v>2067.37467446933</v>
       </c>
       <c r="C23" t="n">
-        <v>602.6891055191268</v>
+        <v>1629.232201652754</v>
       </c>
       <c r="D23" t="n">
-        <v>602.6891055191268</v>
+        <v>1193.322416827198</v>
       </c>
       <c r="E23" t="n">
-        <v>168.9143606774219</v>
+        <v>759.5476719854933</v>
       </c>
       <c r="F23" t="n">
-        <v>168.9143606774219</v>
+        <v>331.680242394701</v>
       </c>
       <c r="G23" t="n">
-        <v>168.9143606774219</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="H23" t="n">
         <v>71.46680906782728</v>
@@ -5989,52 +5989,52 @@
         <v>142.6667593190079</v>
       </c>
       <c r="J23" t="n">
-        <v>300.3135345624531</v>
+        <v>735.5682220153711</v>
       </c>
       <c r="K23" t="n">
-        <v>536.5851849416741</v>
+        <v>1009.684952654778</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7010598055748</v>
+        <v>1302.800827518679</v>
       </c>
       <c r="M23" t="n">
-        <v>1155.848947974362</v>
+        <v>1628.948715687466</v>
       </c>
       <c r="N23" t="n">
-        <v>1487.274249950839</v>
+        <v>1960.374017663944</v>
       </c>
       <c r="O23" t="n">
-        <v>1800.229764492132</v>
+        <v>2273.329532205236</v>
       </c>
       <c r="P23" t="n">
-        <v>2684.631526706495</v>
+        <v>2540.429823384505</v>
       </c>
       <c r="Q23" t="n">
-        <v>3431.711507676157</v>
+        <v>3287.509804354167</v>
       </c>
       <c r="R23" t="n">
         <v>3573.340453391364</v>
       </c>
       <c r="S23" t="n">
-        <v>3532.874083606161</v>
+        <v>3532.874083606162</v>
       </c>
       <c r="T23" t="n">
-        <v>3321.102832075273</v>
+        <v>3321.102832075274</v>
       </c>
       <c r="U23" t="n">
-        <v>3062.032140596787</v>
+        <v>3321.102832075274</v>
       </c>
       <c r="V23" t="n">
-        <v>2699.415190530614</v>
+        <v>3321.102832075274</v>
       </c>
       <c r="W23" t="n">
-        <v>2294.559735941647</v>
+        <v>3321.102832075274</v>
       </c>
       <c r="X23" t="n">
-        <v>1875.417272520958</v>
+        <v>2901.960368654585</v>
       </c>
       <c r="Y23" t="n">
-        <v>1467.131148820611</v>
+        <v>2493.674244954238</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>71.46680906782728</v>
       </c>
       <c r="I24" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393034</v>
       </c>
       <c r="J24" t="n">
-        <v>199.5768845857705</v>
+        <v>199.5768845857706</v>
       </c>
       <c r="K24" t="n">
         <v>360.0555566399407</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2038.243011102492</v>
+        <v>2439.217697942421</v>
       </c>
       <c r="C26" t="n">
-        <v>2038.243011102492</v>
+        <v>2001.075225125845</v>
       </c>
       <c r="D26" t="n">
-        <v>1602.333226276937</v>
+        <v>1565.165440300289</v>
       </c>
       <c r="E26" t="n">
-        <v>1168.558481435232</v>
+        <v>1131.390695458584</v>
       </c>
       <c r="F26" t="n">
         <v>740.6910518444397</v>
@@ -6229,22 +6229,22 @@
         <v>735.5682220153711</v>
       </c>
       <c r="K26" t="n">
-        <v>971.8398723945921</v>
+        <v>1009.684952654778</v>
       </c>
       <c r="L26" t="n">
-        <v>1264.955747258493</v>
+        <v>1302.800827518679</v>
       </c>
       <c r="M26" t="n">
-        <v>1591.10363542728</v>
+        <v>1628.948715687466</v>
       </c>
       <c r="N26" t="n">
-        <v>1922.528937403757</v>
+        <v>1960.374017663944</v>
       </c>
       <c r="O26" t="n">
-        <v>2235.48445194505</v>
+        <v>2273.329532205236</v>
       </c>
       <c r="P26" t="n">
-        <v>2540.429823384504</v>
+        <v>2540.429823384505</v>
       </c>
       <c r="Q26" t="n">
         <v>3287.509804354167</v>
@@ -6253,25 +6253,25 @@
         <v>3573.340453391364</v>
       </c>
       <c r="S26" t="n">
-        <v>3532.874083606161</v>
+        <v>3532.874083606162</v>
       </c>
       <c r="T26" t="n">
-        <v>3321.102832075273</v>
+        <v>3532.874083606162</v>
       </c>
       <c r="U26" t="n">
-        <v>3321.102832075273</v>
+        <v>3273.803392127676</v>
       </c>
       <c r="V26" t="n">
-        <v>2958.4858820091</v>
+        <v>3273.803392127676</v>
       </c>
       <c r="W26" t="n">
-        <v>2553.630427420133</v>
+        <v>3273.803392127676</v>
       </c>
       <c r="X26" t="n">
-        <v>2553.630427420133</v>
+        <v>3273.803392127676</v>
       </c>
       <c r="Y26" t="n">
-        <v>2464.5425815874</v>
+        <v>2865.517268427329</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>71.46680906782728</v>
       </c>
       <c r="I27" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393034</v>
       </c>
       <c r="J27" t="n">
         <v>199.5768845857705</v>
@@ -6384,25 +6384,25 @@
         <v>71.46680906782728</v>
       </c>
       <c r="J28" t="n">
-        <v>130.3724727700104</v>
+        <v>216.9521579347002</v>
       </c>
       <c r="K28" t="n">
-        <v>501.9310279087042</v>
+        <v>588.510713073394</v>
       </c>
       <c r="L28" t="n">
-        <v>1044.011711294963</v>
+        <v>1130.591396459653</v>
       </c>
       <c r="M28" t="n">
-        <v>1634.099970814406</v>
+        <v>1261.195788798182</v>
       </c>
       <c r="N28" t="n">
-        <v>2203.85768577594</v>
+        <v>1830.953503759716</v>
       </c>
       <c r="O28" t="n">
-        <v>2741.292816349483</v>
+        <v>2368.38863433326</v>
       </c>
       <c r="P28" t="n">
-        <v>2918.986085993442</v>
+        <v>2750.79331112911</v>
       </c>
       <c r="Q28" t="n">
         <v>2988.753357224097</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1293.069199651794</v>
+        <v>2206.66393246298</v>
       </c>
       <c r="C29" t="n">
-        <v>904.744245230055</v>
+        <v>1768.521459646403</v>
       </c>
       <c r="D29" t="n">
-        <v>904.744245230055</v>
+        <v>1332.611674820847</v>
       </c>
       <c r="E29" t="n">
-        <v>470.9695003883501</v>
+        <v>898.8369299791424</v>
       </c>
       <c r="F29" t="n">
         <v>470.9695003883501</v>
@@ -6466,22 +6466,22 @@
         <v>735.5682220153711</v>
       </c>
       <c r="K29" t="n">
-        <v>971.8398723945921</v>
+        <v>1009.684952654778</v>
       </c>
       <c r="L29" t="n">
-        <v>1264.955747258493</v>
+        <v>1302.800827518679</v>
       </c>
       <c r="M29" t="n">
-        <v>1591.10363542728</v>
+        <v>1628.948715687466</v>
       </c>
       <c r="N29" t="n">
-        <v>1922.528937403757</v>
+        <v>1960.374017663944</v>
       </c>
       <c r="O29" t="n">
-        <v>2235.48445194505</v>
+        <v>2273.329532205236</v>
       </c>
       <c r="P29" t="n">
-        <v>3086.928609343099</v>
+        <v>2540.429823384505</v>
       </c>
       <c r="Q29" t="n">
         <v>3287.509804354167</v>
@@ -6496,19 +6496,19 @@
         <v>3573.340453391364</v>
       </c>
       <c r="U29" t="n">
-        <v>3314.269761912878</v>
+        <v>3573.340453391364</v>
       </c>
       <c r="V29" t="n">
-        <v>2951.652811846704</v>
+        <v>3438.947974172982</v>
       </c>
       <c r="W29" t="n">
-        <v>2546.797357257738</v>
+        <v>3034.092519584015</v>
       </c>
       <c r="X29" t="n">
-        <v>2127.654893837048</v>
+        <v>2614.950056163326</v>
       </c>
       <c r="Y29" t="n">
-        <v>1719.368770136702</v>
+        <v>2206.66393246298</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>187.7805595115742</v>
       </c>
       <c r="G30" t="n">
-        <v>103.409459101231</v>
+        <v>103.4094591012311</v>
       </c>
       <c r="H30" t="n">
         <v>71.46680906782728</v>
       </c>
       <c r="I30" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393034</v>
       </c>
       <c r="J30" t="n">
-        <v>199.5768845857705</v>
+        <v>199.5768845857706</v>
       </c>
       <c r="K30" t="n">
         <v>360.0555566399407</v>
@@ -6621,10 +6621,10 @@
         <v>71.46680906782728</v>
       </c>
       <c r="J31" t="n">
-        <v>216.9521579347002</v>
+        <v>130.3724727700104</v>
       </c>
       <c r="K31" t="n">
-        <v>588.510713073394</v>
+        <v>231.3483474046373</v>
       </c>
       <c r="L31" t="n">
         <v>773.4290307908963</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1848.770352776047</v>
+        <v>1807.161241142456</v>
       </c>
       <c r="C32" t="n">
-        <v>1410.62787995947</v>
+        <v>1369.01876832588</v>
       </c>
       <c r="D32" t="n">
-        <v>974.7180951339146</v>
+        <v>933.1089835003244</v>
       </c>
       <c r="E32" t="n">
-        <v>540.9433502922097</v>
+        <v>499.3342386586195</v>
       </c>
       <c r="F32" t="n">
-        <v>540.9433502922097</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="G32" t="n">
-        <v>341.1883605239169</v>
+        <v>71.46680906782728</v>
       </c>
       <c r="H32" t="n">
         <v>71.46680906782728</v>
@@ -6700,25 +6700,25 @@
         <v>142.6667593190079</v>
       </c>
       <c r="J32" t="n">
-        <v>735.5682220153711</v>
+        <v>735.568222015371</v>
       </c>
       <c r="K32" t="n">
-        <v>971.8398723945921</v>
+        <v>1009.684952654778</v>
       </c>
       <c r="L32" t="n">
-        <v>1264.955747258493</v>
+        <v>1302.800827518679</v>
       </c>
       <c r="M32" t="n">
-        <v>1591.10363542728</v>
+        <v>1628.948715687466</v>
       </c>
       <c r="N32" t="n">
-        <v>1922.528937403757</v>
+        <v>1960.374017663944</v>
       </c>
       <c r="O32" t="n">
-        <v>2235.48445194505</v>
+        <v>2273.329532205236</v>
       </c>
       <c r="P32" t="n">
-        <v>2540.429823384504</v>
+        <v>2540.429823384505</v>
       </c>
       <c r="Q32" t="n">
         <v>3287.509804354167</v>
@@ -6730,22 +6730,22 @@
         <v>3573.340453391364</v>
       </c>
       <c r="T32" t="n">
-        <v>3361.569201860476</v>
+        <v>3465.744853337367</v>
       </c>
       <c r="U32" t="n">
-        <v>3102.49851038199</v>
+        <v>3465.744853337367</v>
       </c>
       <c r="V32" t="n">
-        <v>3102.49851038199</v>
+        <v>3465.744853337367</v>
       </c>
       <c r="W32" t="n">
-        <v>3102.49851038199</v>
+        <v>3060.8893987484</v>
       </c>
       <c r="X32" t="n">
-        <v>2683.356046961301</v>
+        <v>2641.746935327711</v>
       </c>
       <c r="Y32" t="n">
-        <v>2275.069923260955</v>
+        <v>2233.460811627364</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>71.46680906782728</v>
       </c>
       <c r="I33" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393034</v>
       </c>
       <c r="J33" t="n">
-        <v>199.5768845857705</v>
+        <v>199.5768845857708</v>
       </c>
       <c r="K33" t="n">
-        <v>360.0555566399407</v>
+        <v>360.055556639941</v>
       </c>
       <c r="L33" t="n">
-        <v>575.8389355149631</v>
+        <v>575.8389355149633</v>
       </c>
       <c r="M33" t="n">
-        <v>827.6479608176604</v>
+        <v>827.6479608176606</v>
       </c>
       <c r="N33" t="n">
-        <v>1086.12162173898</v>
+        <v>1086.121621738981</v>
       </c>
       <c r="O33" t="n">
         <v>1322.574524553511</v>
@@ -6858,22 +6858,22 @@
         <v>71.46680906782728</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3724727700104</v>
+        <v>216.9521579347002</v>
       </c>
       <c r="K34" t="n">
-        <v>227.1725733375686</v>
+        <v>588.510713073394</v>
       </c>
       <c r="L34" t="n">
-        <v>769.2532567238275</v>
+        <v>712.3815146916919</v>
       </c>
       <c r="M34" t="n">
-        <v>1359.34151624327</v>
+        <v>1302.469774211135</v>
       </c>
       <c r="N34" t="n">
-        <v>1765.082230407541</v>
+        <v>1872.227489172669</v>
       </c>
       <c r="O34" t="n">
-        <v>2302.517360981084</v>
+        <v>2409.662619746212</v>
       </c>
       <c r="P34" t="n">
         <v>2750.79331112911</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1308.351417301975</v>
+        <v>2016.215441574641</v>
       </c>
       <c r="C35" t="n">
-        <v>1308.351417301975</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.351417301975</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E35" t="n">
-        <v>874.5766724602698</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V35" t="n">
-        <v>2319.861207662534</v>
+        <v>2016.215441574641</v>
       </c>
       <c r="W35" t="n">
-        <v>2319.861207662534</v>
+        <v>2016.215441574641</v>
       </c>
       <c r="X35" t="n">
-        <v>1900.718744241844</v>
+        <v>2016.215441574641</v>
       </c>
       <c r="Y35" t="n">
-        <v>1734.650987786883</v>
+        <v>2016.215441574641</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043084</v>
@@ -7019,22 +7019,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>446.3237610358784</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>269.6167069976345</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>104.8755266101529</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1755.480362387978</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>2143.342086321601</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>2143.342086321601</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1856.386578192031</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1584.360173778323</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1338.968419111735</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.548748425843</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1152.340579151123</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C38" t="n">
-        <v>1152.340579151123</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D38" t="n">
-        <v>716.4307943255671</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E38" t="n">
-        <v>716.4307943255671</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F38" t="n">
         <v>716.4307943255671</v>
@@ -7168,25 +7168,25 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
         <v>1775.969506973259</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2178.883675284749</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U38" t="n">
-        <v>1919.812983806263</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V38" t="n">
-        <v>1557.196033740089</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W38" t="n">
-        <v>1152.340579151123</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="X38" t="n">
-        <v>1152.340579151123</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="Y38" t="n">
-        <v>1152.340579151123</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
         <v>341.0245550495863</v>
@@ -7244,22 +7244,22 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
         <v>803.3877032987878</v>
@@ -7271,7 +7271,7 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>908.8655996749508</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C40" t="n">
-        <v>736.3038881581757</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
-        <v>570.4258953596984</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E40" t="n">
-        <v>400.6678916104357</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M40" t="n">
-        <v>910.9641928553087</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N40" t="n">
         <v>1480.721907816843</v>
       </c>
       <c r="O40" t="n">
-        <v>2018.157038390386</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X40" t="n">
-        <v>1136.285270360843</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.8655996749508</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1344.758510807007</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7414,49 +7414,49 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2060.790516184048</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1655.935061595081</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X41" t="n">
-        <v>1655.935061595081</v>
+        <v>662.40439657733</v>
       </c>
       <c r="Y41" t="n">
-        <v>1655.935061595081</v>
+        <v>254.1182728769834</v>
       </c>
     </row>
     <row r="42">
@@ -7469,31 +7469,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,58 +7545,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.655226289377</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="C43" t="n">
-        <v>299.093514772602</v>
+        <v>586.0490229021706</v>
       </c>
       <c r="D43" t="n">
-        <v>299.093514772602</v>
+        <v>420.1710301036933</v>
       </c>
       <c r="E43" t="n">
-        <v>299.093514772602</v>
+        <v>250.4130263544305</v>
       </c>
       <c r="F43" t="n">
-        <v>122.3864607343582</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>320.0013704257355</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L43" t="n">
-        <v>862.0820538119945</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M43" t="n">
-        <v>992.6864461505238</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1755.480362387978</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
         <v>1973.653814855378</v>
@@ -7605,16 +7605,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083642</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1273.504261946392</v>
+        <v>1025.021346643503</v>
       </c>
       <c r="C44" t="n">
-        <v>835.3617891298154</v>
+        <v>586.8788738269268</v>
       </c>
       <c r="D44" t="n">
-        <v>399.4520043042599</v>
+        <v>586.8788738269268</v>
       </c>
       <c r="E44" t="n">
-        <v>399.4520043042599</v>
+        <v>586.8788738269268</v>
       </c>
       <c r="F44" t="n">
-        <v>399.4520043042599</v>
+        <v>586.8788738269268</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>187.3761825064039</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7663,37 +7663,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W44" t="n">
-        <v>2108.089956131646</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X44" t="n">
-        <v>2108.089956131646</v>
+        <v>1025.021346643503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1699.8038324313</v>
+        <v>1025.021346643503</v>
       </c>
     </row>
     <row r="45">
@@ -7706,46 +7706,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q45" t="n">
         <v>1614.947661807679</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.655226289377</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C46" t="n">
-        <v>299.093514772602</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D46" t="n">
-        <v>299.093514772602</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E46" t="n">
-        <v>299.093514772602</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>299.093514772602</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G46" t="n">
-        <v>134.3523343851204</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.751453776091</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M46" t="n">
-        <v>1603.932529194406</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N46" t="n">
-        <v>1731.431440998295</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
   </sheetData>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>82.5477306012265</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>200.7092366734148</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371567</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>156.7304232042861</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>11.13057120969262</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,19 +9561,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>192.4544649334023</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>38.227353798168</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>623.5368394293873</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>25.20440548592569</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>38.227353798168</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>38.22735379816731</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>77.70122572351011</v>
+        <v>284.4804248668352</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>38.227353798168</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>590.2463295139196</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603099772</v>
       </c>
       <c r="L31" t="n">
-        <v>61.66415767596402</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10351,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>38.22735379816822</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>38.22735379816731</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>281.0523256165473</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>242.7895305103175</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464598</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>410.7470639734272</v>
       </c>
       <c r="P40" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>30.81754489126217</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>157.5051112648905</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>330.0505661880377</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5547274916519314</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4.939677249870869</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>214.3447913080185</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>2.226572689566638</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>284.1673170309998</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>60.2087681389163</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.51450169906886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>60.03778590972684</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>87.41546675672433</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>93.63231361822159</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.673290857790704</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7236730443025</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>2.676651360264657</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>89.791102776944</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>73.92833470389014</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>137.8963654137126</v>
       </c>
       <c r="H23" t="n">
-        <v>170.5512598480299</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>36.79610811688138</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>316.0062950889375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>49.31934321088931</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>225.942226139313</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>197.7502245367076</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>103.1338949621216</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>274.7997506148486</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>239.7961835729308</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>73.92833470389101</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>25.0091156407529</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>70.08578196157234</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>216.6118676395701</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>18.4982105495869</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>113.9717894998653</v>
+        <v>217.1939706653103</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>136.859342024047</v>
       </c>
       <c r="G43" t="n">
-        <v>88.66565849005737</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>46.78466617956548</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>128.2564012936539</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>44.74629500667328</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>298287.9638114121</v>
+        <v>298287.963811412</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>298287.9638114122</v>
+        <v>298287.9638114121</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>298287.9638114122</v>
+        <v>298287.963811412</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>442886.4285080628</v>
+        <v>442886.428508063</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>442886.4285080628</v>
+        <v>442886.428508063</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>442886.4285080628</v>
+        <v>442886.428508063</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>442886.4285080628</v>
+        <v>442886.4285080629</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>298287.9638114122</v>
+        <v>298287.963811412</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>298287.9638114122</v>
+        <v>298287.9638114121</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>298287.9638114122</v>
+        <v>298287.963811412</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>444876.9379563229</v>
+      </c>
+      <c r="C2" t="n">
         <v>444876.937956323</v>
-      </c>
-      <c r="C2" t="n">
-        <v>444876.9379563228</v>
       </c>
       <c r="D2" t="n">
         <v>444876.9379563229</v>
@@ -26349,13 +26349,13 @@
         <v>267405.8712113895</v>
       </c>
       <c r="N2" t="n">
-        <v>267405.8712113894</v>
+        <v>267405.8712113895</v>
       </c>
       <c r="O2" t="n">
         <v>267405.8712113895</v>
       </c>
       <c r="P2" t="n">
-        <v>267405.8712113896</v>
+        <v>267405.8712113895</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80641.39924595131</v>
+        <v>80641.39924595141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71478.85321840744</v>
+        <v>71478.8532184074</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
+        <v>15620.10484543461</v>
+      </c>
+      <c r="F4" t="n">
         <v>15620.1048454346</v>
       </c>
-      <c r="F4" t="n">
-        <v>15620.10484543459</v>
-      </c>
       <c r="G4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="H4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="I4" t="n">
-        <v>62802.20033474411</v>
+        <v>62802.20033474416</v>
       </c>
       <c r="J4" t="n">
-        <v>62802.20033474412</v>
+        <v>62802.20033474416</v>
       </c>
       <c r="K4" t="n">
-        <v>62802.20033474412</v>
+        <v>62802.20033474415</v>
       </c>
       <c r="L4" t="n">
-        <v>62802.20033474412</v>
+        <v>62802.20033474416</v>
       </c>
       <c r="M4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="N4" t="n">
         <v>15620.1048454346</v>
       </c>
       <c r="O4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="P4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>64488.87692398096</v>
@@ -26508,10 +26508,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444902</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="E6" t="n">
-        <v>-345400.5158343586</v>
+        <v>-345954.3962775806</v>
       </c>
       <c r="F6" t="n">
-        <v>205734.685156317</v>
+        <v>205180.8047130951</v>
       </c>
       <c r="G6" t="n">
-        <v>205734.6851563171</v>
+        <v>205180.8047130951</v>
       </c>
       <c r="H6" t="n">
-        <v>205734.6851563171</v>
+        <v>205180.8047130951</v>
       </c>
       <c r="I6" t="n">
-        <v>151634.463922918</v>
+        <v>151351.6454479789</v>
       </c>
       <c r="J6" t="n">
-        <v>232275.8631688693</v>
+        <v>231993.0446939303</v>
       </c>
       <c r="K6" t="n">
-        <v>232275.8631688694</v>
+        <v>231993.0446939304</v>
       </c>
       <c r="L6" t="n">
-        <v>232275.8631688693</v>
+        <v>231993.0446939303</v>
       </c>
       <c r="M6" t="n">
-        <v>134255.8319379097</v>
+        <v>133701.9514946877</v>
       </c>
       <c r="N6" t="n">
-        <v>205734.685156317</v>
+        <v>205180.8047130951</v>
       </c>
       <c r="O6" t="n">
-        <v>205734.6851563171</v>
+        <v>205180.8047130951</v>
       </c>
       <c r="P6" t="n">
-        <v>205734.6851563172</v>
+        <v>205180.8047130951</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>893.335113347841</v>
+        <v>893.3351133478411</v>
       </c>
       <c r="J4" t="n">
-        <v>893.335113347841</v>
+        <v>893.3351133478411</v>
       </c>
       <c r="K4" t="n">
-        <v>893.335113347841</v>
+        <v>893.3351133478411</v>
       </c>
       <c r="L4" t="n">
-        <v>893.335113347841</v>
+        <v>893.3351133478411</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>303.2532189859068</v>
+        <v>303.2532189859072</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.828675376027</v>
+        <v>286.8286753760269</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -31773,7 +31773,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
@@ -31782,19 +31782,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
@@ -31873,7 +31873,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116989</v>
@@ -31931,16 +31931,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
@@ -31952,7 +31952,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916771</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916771</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916771</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916771</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562365</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002376</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766673</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184533</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916794</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35503,16 +35503,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>180.3256099623964</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366647</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.081894361934</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35591,7 +35591,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766673</v>
@@ -35661,16 +35661,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>298.4871160345847</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>227.2024143463627</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125712</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35892,16 +35892,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>108.9084505708625</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
@@ -36059,13 +36059,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847541</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125705</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36281,19 +36281,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>324.3780935581794</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>276.8855865044518</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>893.3351133478411</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>754.6262434036994</v>
+        <v>754.6262434036989</v>
       </c>
       <c r="R23" t="n">
-        <v>143.0595411264717</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916771</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>276.8855865044518</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766673</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>308.0256277166209</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>754.6262434036994</v>
+        <v>754.6262434036989</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916771</v>
+        <v>34.56235976916776</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>179.4881511555136</v>
+        <v>386.2673502988387</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>276.8855865044518</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766673</v>
@@ -36846,13 +36846,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>860.0446034323732</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>754.6262434036989</v>
       </c>
       <c r="R29" t="n">
         <v>288.7178273103004</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916771</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36925,10 +36925,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642697</v>
       </c>
       <c r="L31" t="n">
-        <v>186.7861795126286</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
         <v>596.0487469893359</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>276.8855865044519</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766673</v>
@@ -37083,13 +37083,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>308.0256277166209</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>754.6262434036994</v>
+        <v>754.6262434036989</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916771</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562365</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37162,7 +37162,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893358</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N34" t="n">
-        <v>409.8391052164357</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485105</v>
+        <v>344.576455942321</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125706</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37408,7 +37408,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>296.1475206512696</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125706</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
@@ -37639,13 +37639,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>529.702499678237</v>
       </c>
       <c r="P40" t="n">
-        <v>258.5173486362901</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>128.5954242524321</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002376</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>276.4605469697003</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
